--- a/XJTU_table_C10_like.xlsx
+++ b/XJTU_table_C10_like.xlsx
@@ -520,13 +520,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>8.676</v>
+        <v>5.854</v>
       </c>
       <c r="D2" t="n">
-        <v>9.295999999999999</v>
+        <v>6.425</v>
       </c>
       <c r="E2" t="n">
-        <v>0.104</v>
+        <v>0.064</v>
       </c>
       <c r="F2" t="n">
         <v>19.277</v>
@@ -573,13 +573,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>18.084</v>
+        <v>12.376</v>
       </c>
       <c r="D3" t="n">
-        <v>19.682</v>
+        <v>13.905</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.341</v>
       </c>
       <c r="F3" t="n">
         <v>21.845</v>
@@ -626,13 +626,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>17.726</v>
+        <v>12.137</v>
       </c>
       <c r="D4" t="n">
-        <v>19.164</v>
+        <v>13.78</v>
       </c>
       <c r="E4" t="n">
-        <v>0.536</v>
+        <v>0.278</v>
       </c>
       <c r="F4" t="n">
         <v>19.733</v>
@@ -679,13 +679,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>19.641</v>
+        <v>5.421</v>
       </c>
       <c r="D5" t="n">
-        <v>21.331</v>
+        <v>5.848</v>
       </c>
       <c r="E5" t="n">
-        <v>0.875</v>
+        <v>0.043</v>
       </c>
       <c r="F5" t="n">
         <v>20.319</v>
@@ -732,13 +732,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>10.951</v>
+        <v>15.338</v>
       </c>
       <c r="D6" t="n">
-        <v>11.77</v>
+        <v>16.415</v>
       </c>
       <c r="E6" t="n">
-        <v>0.161</v>
+        <v>0.494</v>
       </c>
       <c r="F6" t="n">
         <v>21.102</v>
@@ -785,13 +785,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>8.672000000000001</v>
+        <v>7.502</v>
       </c>
       <c r="D7" t="n">
-        <v>9.342000000000001</v>
+        <v>8.146000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.102</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="F7" t="n">
         <v>19.86</v>
@@ -838,13 +838,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>19.125</v>
+        <v>30.699</v>
       </c>
       <c r="D8" t="n">
-        <v>20.745</v>
+        <v>33.651</v>
       </c>
       <c r="E8" t="n">
-        <v>0.441</v>
+        <v>1.299</v>
       </c>
       <c r="F8" t="n">
         <v>22.725</v>
@@ -891,13 +891,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>14.708</v>
+        <v>14.738</v>
       </c>
       <c r="D9" t="n">
-        <v>16.034</v>
+        <v>16.027</v>
       </c>
       <c r="E9" t="n">
-        <v>0.349</v>
+        <v>0.303</v>
       </c>
       <c r="F9" t="n">
         <v>18.926</v>

--- a/XJTU_table_C10_like.xlsx
+++ b/XJTU_table_C10_like.xlsx
@@ -520,13 +520,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>5.854</v>
+        <v>10.829</v>
       </c>
       <c r="D2" t="n">
-        <v>6.425</v>
+        <v>11.426</v>
       </c>
       <c r="E2" t="n">
-        <v>0.064</v>
+        <v>0.277</v>
       </c>
       <c r="F2" t="n">
         <v>19.277</v>
@@ -572,14 +572,14 @@
       <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
-        <v>12.376</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.905</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.341</v>
+      <c r="C3" s="1" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>9.435</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.122</v>
       </c>
       <c r="F3" t="n">
         <v>21.845</v>
@@ -599,13 +599,13 @@
       <c r="K3" t="n">
         <v>1.015</v>
       </c>
-      <c r="L3" s="1" t="n">
+      <c r="L3" t="n">
         <v>9.428000000000001</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="M3" t="n">
         <v>10.575</v>
       </c>
-      <c r="N3" s="1" t="n">
+      <c r="N3" t="n">
         <v>0.154</v>
       </c>
       <c r="O3" t="n">
@@ -625,14 +625,14 @@
       <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
-        <v>12.137</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.78</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.278</v>
+      <c r="C4" s="1" t="n">
+        <v>8.448</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>9.321</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.138</v>
       </c>
       <c r="F4" t="n">
         <v>19.733</v>
@@ -652,13 +652,13 @@
       <c r="K4" t="n">
         <v>0.879</v>
       </c>
-      <c r="L4" s="1" t="n">
+      <c r="L4" t="n">
         <v>10.596</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="M4" t="n">
         <v>11.982</v>
       </c>
-      <c r="N4" s="1" t="n">
+      <c r="N4" t="n">
         <v>0.216</v>
       </c>
       <c r="O4" t="n">
@@ -679,13 +679,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5.421</v>
+        <v>7.323</v>
       </c>
       <c r="D5" t="n">
-        <v>5.848</v>
+        <v>7.968</v>
       </c>
       <c r="E5" t="n">
-        <v>0.043</v>
+        <v>0.081</v>
       </c>
       <c r="F5" t="n">
         <v>20.319</v>
@@ -732,13 +732,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>15.338</v>
+        <v>14.256</v>
       </c>
       <c r="D6" t="n">
-        <v>16.415</v>
+        <v>15.154</v>
       </c>
       <c r="E6" t="n">
-        <v>0.494</v>
+        <v>0.245</v>
       </c>
       <c r="F6" t="n">
         <v>21.102</v>
@@ -785,13 +785,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>7.502</v>
+        <v>5.794</v>
       </c>
       <c r="D7" t="n">
-        <v>8.146000000000001</v>
+        <v>6.338</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.049</v>
       </c>
       <c r="F7" t="n">
         <v>19.86</v>
@@ -838,13 +838,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>30.699</v>
+        <v>32.641</v>
       </c>
       <c r="D8" t="n">
-        <v>33.651</v>
+        <v>35.37</v>
       </c>
       <c r="E8" t="n">
-        <v>1.299</v>
+        <v>1.179</v>
       </c>
       <c r="F8" t="n">
         <v>22.725</v>
@@ -891,13 +891,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>14.738</v>
+        <v>19.534</v>
       </c>
       <c r="D9" t="n">
-        <v>16.027</v>
+        <v>21.191</v>
       </c>
       <c r="E9" t="n">
-        <v>0.303</v>
+        <v>0.458</v>
       </c>
       <c r="F9" t="n">
         <v>18.926</v>
@@ -943,15 +943,6 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
-        <v>28.253</v>
-      </c>
-      <c r="D10" t="n">
-        <v>29.98</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.596</v>
-      </c>
       <c r="F10" t="n">
         <v>12.86</v>
       </c>
@@ -996,25 +987,16 @@
       <c r="B11" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>13.748</v>
-      </c>
-      <c r="D11" t="n">
-        <v>14.677</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>0.265</v>
-      </c>
       <c r="F11" t="n">
         <v>13.894</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>14.537</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="1" t="n">
         <v>0.268</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="1" t="n">
         <v>13.774</v>
       </c>
       <c r="J11" t="n">
@@ -1049,15 +1031,6 @@
       <c r="B12" t="n">
         <v>3</v>
       </c>
-      <c r="C12" t="n">
-        <v>65.44</v>
-      </c>
-      <c r="D12" t="n">
-        <v>68.907</v>
-      </c>
-      <c r="E12" t="n">
-        <v>5.918</v>
-      </c>
       <c r="F12" t="n">
         <v>23.397</v>
       </c>
@@ -1102,15 +1075,6 @@
       <c r="B13" t="n">
         <v>4</v>
       </c>
-      <c r="C13" t="n">
-        <v>21.877</v>
-      </c>
-      <c r="D13" t="n">
-        <v>23.787</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.8179999999999999</v>
-      </c>
       <c r="F13" s="1" t="n">
         <v>14.955</v>
       </c>
@@ -1155,15 +1119,6 @@
       <c r="B14" t="n">
         <v>5</v>
       </c>
-      <c r="C14" t="n">
-        <v>39.991</v>
-      </c>
-      <c r="D14" t="n">
-        <v>42.42</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2.598</v>
-      </c>
       <c r="F14" t="n">
         <v>16.356</v>
       </c>
@@ -1208,15 +1163,6 @@
       <c r="B15" t="n">
         <v>6</v>
       </c>
-      <c r="C15" t="n">
-        <v>9.563000000000001</v>
-      </c>
-      <c r="D15" t="n">
-        <v>10.336</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.125</v>
-      </c>
       <c r="F15" t="n">
         <v>12.741</v>
       </c>
@@ -1261,15 +1207,6 @@
       <c r="B16" t="n">
         <v>7</v>
       </c>
-      <c r="C16" t="n">
-        <v>8.856999999999999</v>
-      </c>
-      <c r="D16" t="n">
-        <v>9.425000000000001</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.129</v>
-      </c>
       <c r="F16" t="n">
         <v>14.422</v>
       </c>
@@ -1314,15 +1251,6 @@
       <c r="B17" t="n">
         <v>8</v>
       </c>
-      <c r="C17" t="n">
-        <v>40.285</v>
-      </c>
-      <c r="D17" t="n">
-        <v>42.599</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4.242</v>
-      </c>
       <c r="F17" t="n">
         <v>17.419</v>
       </c>
@@ -1367,15 +1295,6 @@
       <c r="B18" t="n">
         <v>9</v>
       </c>
-      <c r="C18" t="n">
-        <v>26.579</v>
-      </c>
-      <c r="D18" t="n">
-        <v>28.811</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1.254</v>
-      </c>
       <c r="F18" t="n">
         <v>29.61</v>
       </c>
@@ -1420,15 +1339,6 @@
       <c r="B19" t="n">
         <v>10</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>8.542</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>9.19</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>0.106</v>
-      </c>
       <c r="F19" t="n">
         <v>28.159</v>
       </c>
@@ -1447,13 +1357,13 @@
       <c r="K19" t="n">
         <v>1.055</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19" s="1" t="n">
         <v>18.247</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19" s="1" t="n">
         <v>19.514</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19" s="1" t="n">
         <v>0.451</v>
       </c>
       <c r="O19" t="n">
@@ -1473,15 +1383,6 @@
       <c r="B20" t="n">
         <v>11</v>
       </c>
-      <c r="C20" t="n">
-        <v>33.299</v>
-      </c>
-      <c r="D20" t="n">
-        <v>36.471</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2.673</v>
-      </c>
       <c r="F20" t="n">
         <v>25.163</v>
       </c>
@@ -1526,15 +1427,6 @@
       <c r="B21" t="n">
         <v>12</v>
       </c>
-      <c r="C21" t="n">
-        <v>13.674</v>
-      </c>
-      <c r="D21" t="n">
-        <v>14.911</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.339</v>
-      </c>
       <c r="F21" t="n">
         <v>20.989</v>
       </c>
@@ -1579,15 +1471,6 @@
       <c r="B22" t="n">
         <v>13</v>
       </c>
-      <c r="C22" t="n">
-        <v>54.834</v>
-      </c>
-      <c r="D22" t="n">
-        <v>59.032</v>
-      </c>
-      <c r="E22" t="n">
-        <v>3.662</v>
-      </c>
       <c r="F22" t="n">
         <v>37.187</v>
       </c>
@@ -1632,15 +1515,6 @@
       <c r="B23" t="n">
         <v>14</v>
       </c>
-      <c r="C23" t="n">
-        <v>28.006</v>
-      </c>
-      <c r="D23" t="n">
-        <v>30.509</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1.667</v>
-      </c>
       <c r="F23" t="n">
         <v>26.409</v>
       </c>
@@ -1685,15 +1559,6 @@
       <c r="B24" t="n">
         <v>15</v>
       </c>
-      <c r="C24" t="n">
-        <v>9.374000000000001</v>
-      </c>
-      <c r="D24" t="n">
-        <v>10.331</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.157</v>
-      </c>
       <c r="F24" t="n">
         <v>31.387</v>
       </c>
@@ -1738,15 +1603,6 @@
       <c r="B25" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="1" t="n">
-        <v>13.279</v>
-      </c>
-      <c r="D25" s="1" t="n">
-        <v>14.802</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <v>0.314</v>
-      </c>
       <c r="F25" t="n">
         <v>29.54</v>
       </c>
@@ -1765,10 +1621,10 @@
       <c r="K25" t="n">
         <v>1.531</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25" s="1" t="n">
         <v>14.563</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25" s="1" t="n">
         <v>16.053</v>
       </c>
       <c r="N25" s="1" t="n">
@@ -1791,15 +1647,6 @@
       <c r="B26" t="n">
         <v>2</v>
       </c>
-      <c r="C26" t="n">
-        <v>12.886</v>
-      </c>
-      <c r="D26" t="n">
-        <v>13.71</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.357</v>
-      </c>
       <c r="F26" t="n">
         <v>30.366</v>
       </c>
@@ -1844,15 +1691,6 @@
       <c r="B27" t="n">
         <v>3</v>
       </c>
-      <c r="C27" t="n">
-        <v>20.653</v>
-      </c>
-      <c r="D27" t="n">
-        <v>21.874</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.775</v>
-      </c>
       <c r="F27" t="n">
         <v>24.251</v>
       </c>
@@ -1897,15 +1735,6 @@
       <c r="B28" t="n">
         <v>4</v>
       </c>
-      <c r="C28" s="1" t="n">
-        <v>7.149</v>
-      </c>
-      <c r="D28" s="1" t="n">
-        <v>7.815</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.089</v>
-      </c>
       <c r="F28" t="n">
         <v>30.307</v>
       </c>
@@ -1924,10 +1753,10 @@
       <c r="K28" t="n">
         <v>1.386</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L28" s="1" t="n">
         <v>7.373</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M28" s="1" t="n">
         <v>8.038</v>
       </c>
       <c r="N28" s="1" t="n">
@@ -1950,15 +1779,6 @@
       <c r="B29" t="n">
         <v>5</v>
       </c>
-      <c r="C29" t="n">
-        <v>26.338</v>
-      </c>
-      <c r="D29" t="n">
-        <v>27.543</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1.007</v>
-      </c>
       <c r="F29" t="n">
         <v>27.902</v>
       </c>
@@ -2003,15 +1823,6 @@
       <c r="B30" t="n">
         <v>6</v>
       </c>
-      <c r="C30" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="D30" t="n">
-        <v>8.319000000000001</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.14</v>
-      </c>
       <c r="F30" t="n">
         <v>25.615</v>
       </c>
@@ -2056,15 +1867,6 @@
       <c r="B31" t="n">
         <v>7</v>
       </c>
-      <c r="C31" s="1" t="n">
-        <v>7.307</v>
-      </c>
-      <c r="D31" s="1" t="n">
-        <v>7.881</v>
-      </c>
-      <c r="E31" s="1" t="n">
-        <v>0.08500000000000001</v>
-      </c>
       <c r="F31" t="n">
         <v>23.31</v>
       </c>
@@ -2083,13 +1885,13 @@
       <c r="K31" t="n">
         <v>0.987</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L31" s="1" t="n">
         <v>8.33</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M31" s="1" t="n">
         <v>8.909000000000001</v>
       </c>
-      <c r="N31" t="n">
+      <c r="N31" s="1" t="n">
         <v>0.091</v>
       </c>
       <c r="O31" t="n">
@@ -2109,15 +1911,6 @@
       <c r="B32" t="n">
         <v>8</v>
       </c>
-      <c r="C32" t="n">
-        <v>10.865</v>
-      </c>
-      <c r="D32" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.258</v>
-      </c>
       <c r="F32" t="n">
         <v>23.228</v>
       </c>
@@ -2162,15 +1955,6 @@
       <c r="B33" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="1" t="n">
-        <v>15.34</v>
-      </c>
-      <c r="D33" s="1" t="n">
-        <v>16.963</v>
-      </c>
-      <c r="E33" s="1" t="n">
-        <v>0.364</v>
-      </c>
       <c r="F33" t="n">
         <v>25.554</v>
       </c>
@@ -2198,13 +1982,13 @@
       <c r="N33" t="n">
         <v>0.457</v>
       </c>
-      <c r="O33" t="n">
+      <c r="O33" s="1" t="n">
         <v>16.927</v>
       </c>
-      <c r="P33" t="n">
+      <c r="P33" s="1" t="n">
         <v>18.768</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="Q33" s="1" t="n">
         <v>0.417</v>
       </c>
     </row>
@@ -2215,15 +1999,6 @@
       <c r="B34" t="n">
         <v>2</v>
       </c>
-      <c r="C34" s="1" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="D34" s="1" t="n">
-        <v>6.154</v>
-      </c>
-      <c r="E34" s="1" t="n">
-        <v>0.061</v>
-      </c>
       <c r="F34" t="n">
         <v>25.604</v>
       </c>
@@ -2242,13 +2017,13 @@
       <c r="K34" t="n">
         <v>1.333</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L34" s="1" t="n">
         <v>6.628</v>
       </c>
-      <c r="M34" t="n">
+      <c r="M34" s="1" t="n">
         <v>7.354</v>
       </c>
-      <c r="N34" t="n">
+      <c r="N34" s="1" t="n">
         <v>0.107</v>
       </c>
       <c r="O34" t="n">
@@ -2268,15 +2043,6 @@
       <c r="B35" t="n">
         <v>3</v>
       </c>
-      <c r="C35" t="n">
-        <v>15.854</v>
-      </c>
-      <c r="D35" t="n">
-        <v>17.093</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.435</v>
-      </c>
       <c r="F35" t="n">
         <v>29.283</v>
       </c>
@@ -2321,15 +2087,6 @@
       <c r="B36" t="n">
         <v>4</v>
       </c>
-      <c r="C36" s="1" t="n">
-        <v>14.577</v>
-      </c>
-      <c r="D36" s="1" t="n">
-        <v>15.565</v>
-      </c>
-      <c r="E36" s="1" t="n">
-        <v>0.255</v>
-      </c>
       <c r="F36" t="n">
         <v>26.406</v>
       </c>
@@ -2357,13 +2114,13 @@
       <c r="N36" t="n">
         <v>0.47</v>
       </c>
-      <c r="O36" t="n">
+      <c r="O36" s="1" t="n">
         <v>19.889</v>
       </c>
-      <c r="P36" t="n">
+      <c r="P36" s="1" t="n">
         <v>21.113</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="Q36" s="1" t="n">
         <v>0.451</v>
       </c>
     </row>
@@ -2374,15 +2131,6 @@
       <c r="B37" t="n">
         <v>5</v>
       </c>
-      <c r="C37" s="1" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="D37" s="1" t="n">
-        <v>5.207</v>
-      </c>
-      <c r="E37" s="1" t="n">
-        <v>0.034</v>
-      </c>
       <c r="F37" t="n">
         <v>19.922</v>
       </c>
@@ -2410,13 +2158,13 @@
       <c r="N37" t="n">
         <v>0.079</v>
       </c>
-      <c r="O37" t="n">
+      <c r="O37" s="1" t="n">
         <v>6.718</v>
       </c>
-      <c r="P37" t="n">
+      <c r="P37" s="1" t="n">
         <v>7.223</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="Q37" s="1" t="n">
         <v>0.065</v>
       </c>
     </row>
@@ -2427,15 +2175,6 @@
       <c r="B38" t="n">
         <v>6</v>
       </c>
-      <c r="C38" t="n">
-        <v>12.78</v>
-      </c>
-      <c r="D38" t="n">
-        <v>13.678</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.29</v>
-      </c>
       <c r="F38" t="n">
         <v>19.269</v>
       </c>
@@ -2480,15 +2219,6 @@
       <c r="B39" t="n">
         <v>7</v>
       </c>
-      <c r="C39" t="n">
-        <v>28.399</v>
-      </c>
-      <c r="D39" t="n">
-        <v>30.475</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1.547</v>
-      </c>
       <c r="F39" t="n">
         <v>25.153</v>
       </c>
@@ -2533,15 +2263,6 @@
       <c r="B40" t="n">
         <v>8</v>
       </c>
-      <c r="C40" t="n">
-        <v>11.155</v>
-      </c>
-      <c r="D40" t="n">
-        <v>11.911</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.229</v>
-      </c>
       <c r="F40" t="n">
         <v>21.444</v>
       </c>
@@ -2586,15 +2307,6 @@
       <c r="B41" t="n">
         <v>1</v>
       </c>
-      <c r="C41" t="n">
-        <v>23.84</v>
-      </c>
-      <c r="D41" t="n">
-        <v>25.754</v>
-      </c>
-      <c r="E41" t="n">
-        <v>1.163</v>
-      </c>
       <c r="F41" t="n">
         <v>32.537</v>
       </c>
@@ -2639,15 +2351,6 @@
       <c r="B42" t="n">
         <v>2</v>
       </c>
-      <c r="C42" t="n">
-        <v>24.896</v>
-      </c>
-      <c r="D42" t="n">
-        <v>26.536</v>
-      </c>
-      <c r="E42" t="n">
-        <v>1.353</v>
-      </c>
       <c r="F42" t="n">
         <v>32.444</v>
       </c>
@@ -2692,15 +2395,6 @@
       <c r="B43" t="n">
         <v>3</v>
       </c>
-      <c r="C43" s="1" t="n">
-        <v>12.656</v>
-      </c>
-      <c r="D43" s="1" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="E43" s="1" t="n">
-        <v>0.269</v>
-      </c>
       <c r="F43" t="n">
         <v>36.442</v>
       </c>
@@ -2719,13 +2413,13 @@
       <c r="K43" t="n">
         <v>2.18</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L43" s="1" t="n">
         <v>13.545</v>
       </c>
-      <c r="M43" t="n">
+      <c r="M43" s="1" t="n">
         <v>15.173</v>
       </c>
-      <c r="N43" t="n">
+      <c r="N43" s="1" t="n">
         <v>0.311</v>
       </c>
       <c r="O43" t="n">
@@ -2745,15 +2439,6 @@
       <c r="B44" t="n">
         <v>4</v>
       </c>
-      <c r="C44" t="n">
-        <v>13.053</v>
-      </c>
-      <c r="D44" t="n">
-        <v>13.934</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.284</v>
-      </c>
       <c r="F44" t="n">
         <v>38.197</v>
       </c>
@@ -2798,15 +2483,6 @@
       <c r="B45" t="n">
         <v>5</v>
       </c>
-      <c r="C45" t="n">
-        <v>23.866</v>
-      </c>
-      <c r="D45" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1.376</v>
-      </c>
       <c r="F45" t="n">
         <v>37.87</v>
       </c>
@@ -2851,15 +2527,6 @@
       <c r="B46" t="n">
         <v>6</v>
       </c>
-      <c r="C46" t="n">
-        <v>41.958</v>
-      </c>
-      <c r="D46" t="n">
-        <v>45.263</v>
-      </c>
-      <c r="E46" t="n">
-        <v>2.29</v>
-      </c>
       <c r="F46" t="n">
         <v>35.413</v>
       </c>
@@ -2904,15 +2571,6 @@
       <c r="B47" t="n">
         <v>7</v>
       </c>
-      <c r="C47" s="1" t="n">
-        <v>15.059</v>
-      </c>
-      <c r="D47" s="1" t="n">
-        <v>16.192</v>
-      </c>
-      <c r="E47" s="1" t="n">
-        <v>0.325</v>
-      </c>
       <c r="F47" t="n">
         <v>34.869</v>
       </c>
@@ -2931,13 +2589,13 @@
       <c r="K47" t="n">
         <v>1.938</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L47" s="1" t="n">
         <v>16.04</v>
       </c>
-      <c r="M47" t="n">
+      <c r="M47" s="1" t="n">
         <v>17.352</v>
       </c>
-      <c r="N47" t="n">
+      <c r="N47" s="1" t="n">
         <v>0.369</v>
       </c>
       <c r="O47" t="n">
@@ -2957,15 +2615,6 @@
       <c r="B48" t="n">
         <v>8</v>
       </c>
-      <c r="C48" s="1" t="n">
-        <v>12.782</v>
-      </c>
-      <c r="D48" s="1" t="n">
-        <v>14.199</v>
-      </c>
-      <c r="E48" s="1" t="n">
-        <v>0.308</v>
-      </c>
       <c r="F48" t="n">
         <v>39.43</v>
       </c>
@@ -2993,13 +2642,13 @@
       <c r="N48" t="n">
         <v>0.356</v>
       </c>
-      <c r="O48" t="n">
+      <c r="O48" s="1" t="n">
         <v>13.306</v>
       </c>
-      <c r="P48" t="n">
+      <c r="P48" s="1" t="n">
         <v>14.605</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="Q48" s="1" t="n">
         <v>0.334</v>
       </c>
     </row>
@@ -3010,15 +2659,6 @@
       <c r="B49" t="n">
         <v>1</v>
       </c>
-      <c r="C49" s="1" t="n">
-        <v>13.425</v>
-      </c>
-      <c r="D49" s="1" t="n">
-        <v>14.355</v>
-      </c>
-      <c r="E49" s="1" t="n">
-        <v>0.247</v>
-      </c>
       <c r="F49" t="n">
         <v>34.756</v>
       </c>
@@ -3046,13 +2686,13 @@
       <c r="N49" t="n">
         <v>0.609</v>
       </c>
-      <c r="O49" t="n">
+      <c r="O49" s="1" t="n">
         <v>14.573</v>
       </c>
-      <c r="P49" t="n">
+      <c r="P49" s="1" t="n">
         <v>16.298</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="Q49" s="1" t="n">
         <v>0.5580000000000001</v>
       </c>
     </row>
@@ -3063,15 +2703,6 @@
       <c r="B50" t="n">
         <v>2</v>
       </c>
-      <c r="C50" s="1" t="n">
-        <v>11.728</v>
-      </c>
-      <c r="D50" s="1" t="n">
-        <v>12.753</v>
-      </c>
-      <c r="E50" s="1" t="n">
-        <v>0.293</v>
-      </c>
       <c r="F50" t="n">
         <v>25.048</v>
       </c>
@@ -3099,13 +2730,13 @@
       <c r="N50" t="n">
         <v>0.414</v>
       </c>
-      <c r="O50" t="n">
+      <c r="O50" s="1" t="n">
         <v>12.68</v>
       </c>
-      <c r="P50" t="n">
+      <c r="P50" s="1" t="n">
         <v>13.776</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="Q50" s="1" t="n">
         <v>0.317</v>
       </c>
     </row>
@@ -3116,15 +2747,6 @@
       <c r="B51" t="n">
         <v>3</v>
       </c>
-      <c r="C51" t="n">
-        <v>15.197</v>
-      </c>
-      <c r="D51" t="n">
-        <v>16.696</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.382</v>
-      </c>
       <c r="F51" t="n">
         <v>24.312</v>
       </c>
@@ -3169,15 +2791,6 @@
       <c r="B52" t="n">
         <v>4</v>
       </c>
-      <c r="C52" s="1" t="n">
-        <v>9.071999999999999</v>
-      </c>
-      <c r="D52" s="1" t="n">
-        <v>10.062</v>
-      </c>
-      <c r="E52" s="1" t="n">
-        <v>0.19</v>
-      </c>
       <c r="F52" t="n">
         <v>28.903</v>
       </c>
@@ -3205,13 +2818,13 @@
       <c r="N52" t="n">
         <v>0.452</v>
       </c>
-      <c r="O52" t="n">
+      <c r="O52" s="1" t="n">
         <v>12.433</v>
       </c>
-      <c r="P52" t="n">
+      <c r="P52" s="1" t="n">
         <v>13.832</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="Q52" s="1" t="n">
         <v>0.385</v>
       </c>
     </row>
@@ -3222,15 +2835,6 @@
       <c r="B53" t="n">
         <v>5</v>
       </c>
-      <c r="C53" t="n">
-        <v>44.628</v>
-      </c>
-      <c r="D53" t="n">
-        <v>49.113</v>
-      </c>
-      <c r="E53" t="n">
-        <v>2.469</v>
-      </c>
       <c r="F53" t="n">
         <v>29.502</v>
       </c>
@@ -3275,16 +2879,7 @@
       <c r="B54" t="n">
         <v>6</v>
       </c>
-      <c r="C54" s="1" t="n">
-        <v>31.331</v>
-      </c>
-      <c r="D54" s="1" t="n">
-        <v>33.023</v>
-      </c>
-      <c r="E54" s="1" t="n">
-        <v>1.157</v>
-      </c>
-      <c r="F54" t="n">
+      <c r="F54" s="1" t="n">
         <v>36.643</v>
       </c>
       <c r="G54" t="n">
@@ -3305,10 +2900,10 @@
       <c r="L54" t="n">
         <v>37.578</v>
       </c>
-      <c r="M54" t="n">
+      <c r="M54" s="1" t="n">
         <v>39.422</v>
       </c>
-      <c r="N54" t="n">
+      <c r="N54" s="1" t="n">
         <v>1.606</v>
       </c>
       <c r="O54" t="n">
@@ -3328,15 +2923,6 @@
       <c r="B55" t="n">
         <v>7</v>
       </c>
-      <c r="C55" t="n">
-        <v>10.776</v>
-      </c>
-      <c r="D55" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.182</v>
-      </c>
       <c r="F55" t="n">
         <v>22.641</v>
       </c>
@@ -3381,15 +2967,6 @@
       <c r="B56" t="n">
         <v>8</v>
       </c>
-      <c r="C56" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="D56" t="n">
-        <v>10.515</v>
-      </c>
-      <c r="E56" s="1" t="n">
-        <v>0.191</v>
-      </c>
       <c r="F56" t="n">
         <v>23.941</v>
       </c>
@@ -3423,7 +3000,7 @@
       <c r="P56" s="1" t="n">
         <v>10.142</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="Q56" s="1" t="n">
         <v>0.207</v>
       </c>
     </row>
